--- a/cagrid/Documentation/core/release_notes/caGrid 1.4.1 known issues.xlsx
+++ b/cagrid/Documentation/core/release_notes/caGrid 1.4.1 known issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-28960" yWindow="820" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
